--- a/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6395512828302335</v>
+        <v>0.6460798094917871</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6380152633557742</v>
+        <v>0.6355078408382877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6586339683789209</v>
+        <v>0.654205244962683</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7487982416074479</v>
+        <v>0.7462933694154288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7260196318405131</v>
+        <v>0.7217078775842793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7271935129591445</v>
+        <v>0.7241235949046615</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.7105227152497271</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6625453313986099</v>
+        <v>0.66254533139861</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6866877757898303</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6544132580714647</v>
+        <v>0.662304834708442</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6223338752891348</v>
+        <v>0.6224844771636575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6504890272758318</v>
+        <v>0.6531835840032345</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7539805323155281</v>
+        <v>0.758460640926281</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7002695364337945</v>
+        <v>0.7014367739502378</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.714821364214076</v>
+        <v>0.7151765257622428</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.6096979620291948</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5003667278457844</v>
+        <v>0.5003667278457843</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5533287343880098</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5455830551183846</v>
+        <v>0.5503934488504055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4524048588817954</v>
+        <v>0.4515469048399421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.514664118036091</v>
+        <v>0.5153649925780951</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6615150397092601</v>
+        <v>0.6644420662868168</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5506743021300544</v>
+        <v>0.5529889988497374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.589097397774404</v>
+        <v>0.587585776722127</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9350580783715714</v>
+        <v>0.9350580783715713</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9237719061718327</v>
+        <v>0.9237719061718328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9289611709046151</v>
+        <v>0.9289611709046153</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8873395445405392</v>
+        <v>0.884541879325407</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8881623629718666</v>
+        <v>0.89115196710098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8972416160415477</v>
+        <v>0.8993325940830103</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9641302901285088</v>
+        <v>0.9616001489712177</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.946284162332277</v>
+        <v>0.9466155875814442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9474432622594522</v>
+        <v>0.9484234493465817</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.214051568877691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2630158042441778</v>
+        <v>0.2630158042441777</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2579957716956218</v>
+        <v>0.2597597341497246</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1724929496342853</v>
+        <v>0.1738915422566947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2271229741194281</v>
+        <v>0.2303939592669875</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3792796253407582</v>
+        <v>0.37507679170911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.257632384438378</v>
+        <v>0.2605966752647931</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2999341506021758</v>
+        <v>0.3032909548502086</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8290474134504145</v>
+        <v>0.8290474134504147</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8587438970715646</v>
+        <v>0.8587438970715645</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8435340095528451</v>
+        <v>0.8435340095528452</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.779213999156869</v>
+        <v>0.7857779078510931</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8184519668631393</v>
+        <v>0.8164370118130809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8101662525876466</v>
+        <v>0.8113306492700377</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8676540112971364</v>
+        <v>0.8716296119413778</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8945490034393324</v>
+        <v>0.8890859768511319</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8683967780896554</v>
+        <v>0.8700618801517398</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.483370743962114</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4245852252067203</v>
+        <v>0.4245852252067202</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.4532815525511305</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4333061169531556</v>
+        <v>0.4362935491312858</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3895666305393618</v>
+        <v>0.3911134821360056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4235956628554325</v>
+        <v>0.4271278733807239</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5288793729953076</v>
+        <v>0.5289470914350064</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4611812893396473</v>
+        <v>0.462231913588424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4824579179416932</v>
+        <v>0.4823088326566809</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9408705289263033</v>
+        <v>0.9408705289263036</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.9369974033097551</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9173750041147994</v>
+        <v>0.9162609951972658</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9178470679764814</v>
+        <v>0.9165464900382168</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9249346040055396</v>
+        <v>0.9232043199470801</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9571545105858745</v>
+        <v>0.9582887104387788</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9516154112235663</v>
+        <v>0.951698251039771</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9508811474900881</v>
+        <v>0.9504798491019399</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.7092563107716615</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.6727549594325423</v>
+        <v>0.6727549594325424</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.6905879739813898</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6921934337508138</v>
+        <v>0.6925812694729263</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6585581251281744</v>
+        <v>0.6584220275840509</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6792030433634652</v>
+        <v>0.6791291982415104</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.726283416402319</v>
+        <v>0.7262851944340722</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6863909456596489</v>
+        <v>0.6864962030105668</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7015946546201748</v>
+        <v>0.7013408694940335</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>203425</v>
+        <v>205501</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>198848</v>
+        <v>198067</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>414769</v>
+        <v>411980</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>238173</v>
+        <v>237377</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>226276</v>
+        <v>224933</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>457944</v>
+        <v>456010</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>339082</v>
+        <v>343171</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>318353</v>
+        <v>318430</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>669805</v>
+        <v>672579</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>390673</v>
+        <v>392994</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>358221</v>
+        <v>358818</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>736047</v>
+        <v>736413</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>151746</v>
+        <v>153084</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133925</v>
+        <v>133671</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>295502</v>
+        <v>295904</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>183990</v>
+        <v>184805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>163016</v>
+        <v>163701</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>338239</v>
+        <v>337371</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>249076</v>
+        <v>248291</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>292912</v>
+        <v>293898</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>547762</v>
+        <v>549039</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>270631</v>
+        <v>269921</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>312081</v>
+        <v>312190</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>578410</v>
+        <v>579009</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51936</v>
+        <v>52291</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38712</v>
+        <v>39026</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96694</v>
+        <v>98087</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>76352</v>
+        <v>75506</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57820</v>
+        <v>58485</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>127692</v>
+        <v>129121</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>188286</v>
+        <v>189872</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>188363</v>
+        <v>187899</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>382221</v>
+        <v>382770</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>209656</v>
+        <v>210617</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>205876</v>
+        <v>204619</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>409693</v>
+        <v>410479</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>283250</v>
+        <v>285202</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>267018</v>
+        <v>268078</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>567244</v>
+        <v>571974</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>345725</v>
+        <v>345770</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>316104</v>
+        <v>316824</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>646067</v>
+        <v>645867</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>649241</v>
+        <v>648453</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>697783</v>
+        <v>696794</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1357762</v>
+        <v>1355222</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>677394</v>
+        <v>678196</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>723455</v>
+        <v>723518</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1395851</v>
+        <v>1395262</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2214609</v>
+        <v>2215850</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2205691</v>
+        <v>2205235</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>4447884</v>
+        <v>4447400</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2323677</v>
+        <v>2323683</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2298911</v>
+        <v>2299263</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4594520</v>
+        <v>4592858</v>
       </c>
     </row>
     <row r="40">
